--- a/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$103</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="657">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T16:50:11-04:00</t>
+    <t>2024-06-03T10:40:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -647,7 +647,7 @@
 </t>
   </si>
   <si>
-    <t>Corresponde al Identificador de la Interconsulta. Se asigna desde nivel central.</t>
+    <t>Identificador de la Interconsulta (Se asigna a nivel central)</t>
   </si>
   <si>
     <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
@@ -754,7 +754,13 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSTipoIdentificadorSR</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -763,13 +769,318 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.coding</t>
+    <t>ServiceRequest.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.value</t>
+  </si>
+  <si>
+    <t>Identificador de la Interconsulta</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>ORC.8 (plus others)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>ORC.4</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>Estado de la Interconsulta. Por defecto, se utiliza 'draft'</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
+  </si>
+  <si>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>ORC.5,RF1-1</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Action.currentStatus</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>Tipo de solicitud</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
+  </si>
+  <si>
+    <t>Modalidad de atención</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSModalidadAtencionCodigo</t>
+  </si>
+  <si>
+    <t>RF1-5</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -797,13 +1108,13 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.coding.system</t>
+    <t>ServiceRequest.category.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category.coding.system</t>
   </si>
   <si>
     <t>Sistema terminológico, url/uri/uuid</t>
@@ -827,7 +1138,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.coding.version</t>
+    <t>ServiceRequest.category.coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -848,7 +1159,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.coding.code</t>
+    <t>ServiceRequest.category.coding.code</t>
   </si>
   <si>
     <t>Código definido en un sistema terminológico</t>
@@ -860,9 +1171,6 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -872,7 +1180,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.coding.display</t>
+    <t>ServiceRequest.category.coding.display</t>
   </si>
   <si>
     <t>Representación visual, definida por el sistema terminológico</t>
@@ -893,7 +1201,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.coding.userSelected</t>
+    <t>ServiceRequest.category.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -921,7 +1229,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.text</t>
+    <t>ServiceRequest.category.text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -943,344 +1251,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>Valor del identificador</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>ServiceRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
-</t>
-  </si>
-  <si>
-    <t>What request fulfills</t>
-  </si>
-  <si>
-    <t>Plan/proposal/order fulfilled by this request.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>ORC.8 (plus others)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>What request replaces</t>
-  </si>
-  <si>
-    <t>The request takes the place of the referenced completed or terminated request(s).</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requisition</t>
-  </si>
-  <si>
-    <t>grouperId
-groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite Request ID</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>ORC.4</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.status</t>
-  </si>
-  <si>
-    <t>Estado de la Interconsulta. Por defecto, se utiliza 'draft'</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
-  </si>
-  <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
-  </si>
-  <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>ORC.5,RF1-1</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>ServiceRequest.intent</t>
-  </si>
-  <si>
-    <t>Tipo de solicitud</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>The kind of service request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t>Modalidad de atención</t>
-  </si>
-  <si>
-    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSModalidadAtencionCodigo</t>
-  </si>
-  <si>
-    <t>RF1-5</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.system</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.version</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.display</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.text</t>
   </si>
   <si>
     <t>ServiceRequest.priority</t>
@@ -2414,7 +2384,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO114"/>
+  <dimension ref="A1:AO103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2424,7 +2394,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="57.87109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.76171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="34.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
@@ -4823,7 +4793,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>91</v>
@@ -5288,13 +5258,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>81</v>
@@ -5340,11 +5310,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -5362,7 +5334,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5380,7 +5352,7 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>228</v>
@@ -5394,10 +5366,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5417,19 +5389,23 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -5441,7 +5417,7 @@
         <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -5477,7 +5453,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5489,16 +5465,16 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5509,42 +5485,42 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5558,7 +5534,7 @@
         <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>81</v>
@@ -5582,40 +5558,40 @@
         <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5626,10 +5602,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5637,13 +5613,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>81</v>
@@ -5652,20 +5628,16 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5713,13 +5685,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -5731,10 +5703,10 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5745,10 +5717,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5768,18 +5740,20 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5828,7 +5802,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5840,16 +5814,16 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5860,14 +5834,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5883,19 +5857,19 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5933,19 +5907,19 @@
         <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5957,16 +5931,16 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5977,10 +5951,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5991,10 +5965,10 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
@@ -6006,17 +5980,15 @@
         <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -6064,13 +6036,13 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -6079,13 +6051,13 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -6096,21 +6068,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -6122,17 +6094,15 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -6181,13 +6151,13 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
@@ -6196,13 +6166,13 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6213,24 +6183,24 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
@@ -6239,18 +6209,16 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -6259,7 +6227,7 @@
         <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>81</v>
@@ -6298,13 +6266,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -6313,13 +6281,13 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6330,14 +6298,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6347,7 +6315,7 @@
         <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
@@ -6356,17 +6324,19 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6415,7 +6385,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6430,13 +6400,13 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6447,10 +6417,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6458,35 +6428,33 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6495,7 +6463,7 @@
         <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>81</v>
@@ -6510,13 +6478,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6534,10 +6502,10 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>90</v>
@@ -6549,27 +6517,27 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6577,35 +6545,33 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6614,7 +6580,7 @@
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>81</v>
@@ -6629,13 +6595,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6653,10 +6619,10 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>90</v>
@@ -6668,16 +6634,16 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6685,10 +6651,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6702,7 +6668,7 @@
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>81</v>
@@ -6711,19 +6677,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6736,7 +6702,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -6748,13 +6714,11 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6772,13 +6736,13 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -6790,13 +6754,13 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6804,10 +6768,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6815,32 +6779,30 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>209</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6853,7 +6815,7 @@
         <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>81</v>
@@ -6889,7 +6851,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6901,16 +6863,16 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6921,21 +6883,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6944,18 +6906,20 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>316</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6992,40 +6956,40 @@
         <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -7036,10 +7000,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7047,13 +7011,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>81</v>
@@ -7062,18 +7026,20 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -7121,13 +7087,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -7139,10 +7105,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7153,10 +7119,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7167,7 +7133,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -7176,20 +7142,18 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>331</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>210</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -7238,28 +7202,28 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7270,14 +7234,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7293,19 +7257,19 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>216</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>195</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7343,19 +7307,19 @@
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7367,16 +7331,16 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7387,24 +7351,24 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
@@ -7413,16 +7377,20 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7470,13 +7438,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -7485,13 +7453,13 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7502,21 +7470,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -7528,15 +7496,17 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>209</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7585,13 +7555,13 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
@@ -7600,13 +7570,13 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7617,24 +7587,24 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>81</v>
@@ -7643,19 +7613,17 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7704,7 +7672,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7719,13 +7687,13 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7736,10 +7704,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7747,7 +7715,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -7756,24 +7724,24 @@
         <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7782,7 +7750,7 @@
         <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>81</v>
@@ -7797,13 +7765,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -7821,10 +7789,10 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>90</v>
@@ -7836,27 +7804,27 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7864,33 +7832,35 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>110</v>
+        <v>382</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7899,7 +7869,7 @@
         <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>81</v>
@@ -7914,13 +7884,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7938,10 +7908,10 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>90</v>
@@ -7953,16 +7923,16 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>133</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7970,10 +7940,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7987,7 +7957,7 @@
         <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>81</v>
@@ -7996,19 +7966,19 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -8033,11 +8003,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>394</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -8055,13 +8027,13 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
@@ -8073,13 +8045,13 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -8087,10 +8059,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8104,29 +8076,31 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>210</v>
+        <v>399</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>211</v>
+        <v>400</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="R49" t="s" s="2">
         <v>81</v>
       </c>
@@ -8146,13 +8120,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -8170,7 +8144,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>212</v>
+        <v>398</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8182,19 +8156,19 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>213</v>
+        <v>406</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -8202,48 +8176,52 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>215</v>
+        <v>409</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>216</v>
+        <v>410</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="R50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8275,40 +8253,40 @@
         <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>218</v>
+        <v>408</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>213</v>
+        <v>415</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8319,14 +8297,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8345,20 +8323,18 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>242</v>
+        <v>418</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8382,13 +8358,11 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8406,13 +8380,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>246</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -8421,27 +8395,27 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>247</v>
+        <v>423</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>248</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8553,10 +8527,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8670,10 +8644,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8681,7 +8655,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>90</v>
@@ -8696,19 +8670,19 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>342</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>254</v>
+        <v>345</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>255</v>
+        <v>346</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8757,13 +8731,13 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>256</v>
+        <v>347</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
@@ -8775,10 +8749,10 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>258</v>
+        <v>349</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8789,10 +8763,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8812,20 +8786,18 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>209</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8874,7 +8846,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8886,16 +8858,16 @@
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8906,44 +8878,44 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8979,40 +8951,40 @@
         <v>81</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -9023,10 +8995,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9049,17 +9021,19 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -9108,7 +9082,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9126,10 +9100,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9140,10 +9114,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9166,20 +9140,18 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -9227,7 +9199,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9245,10 +9217,10 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9259,10 +9231,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9270,13 +9242,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>81</v>
@@ -9285,19 +9257,17 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9346,7 +9316,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9364,10 +9334,10 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>296</v>
+        <v>372</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9378,10 +9348,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9404,22 +9374,22 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q60" t="s" s="2">
-        <v>411</v>
-      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9439,13 +9409,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9463,7 +9433,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9478,16 +9448,16 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -9495,10 +9465,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9515,32 +9485,30 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q61" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9584,7 +9552,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9599,13 +9567,13 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9616,24 +9584,24 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>81</v>
@@ -9642,18 +9610,20 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9677,11 +9647,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y62" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z62" t="s" s="2">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9699,7 +9671,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9714,38 +9686,38 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9754,18 +9726,20 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>210</v>
+        <v>440</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9790,13 +9764,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9814,53 +9788,53 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>213</v>
+        <v>424</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9869,21 +9843,21 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>135</v>
+        <v>449</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9919,40 +9893,40 @@
         <v>81</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>218</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>213</v>
+        <v>453</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9963,10 +9937,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9989,20 +9963,16 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>241</v>
+        <v>455</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>242</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>81</v>
       </c>
@@ -10050,13 +10020,13 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>246</v>
+        <v>454</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
@@ -10065,31 +10035,31 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>247</v>
+        <v>459</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>248</v>
+        <v>460</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>81</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10105,16 +10075,16 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>209</v>
+        <v>465</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>210</v>
+        <v>466</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>211</v>
+        <v>467</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10165,7 +10135,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>212</v>
+        <v>463</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10177,41 +10147,41 @@
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>213</v>
+        <v>470</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>192</v>
+        <v>474</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -10220,20 +10190,18 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>475</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>215</v>
+        <v>476</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -10270,54 +10238,54 @@
         <v>81</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>218</v>
+        <v>473</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>213</v>
+        <v>480</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10331,7 +10299,7 @@
         <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>81</v>
@@ -10340,20 +10308,16 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>484</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>252</v>
+        <v>485</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10377,13 +10341,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10401,7 +10365,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>256</v>
+        <v>483</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10419,38 +10383,38 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>258</v>
+        <v>489</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>81</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>81</v>
@@ -10459,17 +10423,15 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>260</v>
+        <v>494</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10518,7 +10480,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>263</v>
+        <v>491</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10533,31 +10495,31 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>264</v>
+        <v>497</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>265</v>
+        <v>498</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>81</v>
+        <v>499</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>81</v>
+        <v>502</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10576,18 +10538,18 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>110</v>
+        <v>503</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>267</v>
+        <v>504</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10635,7 +10597,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>271</v>
+        <v>501</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10650,31 +10612,31 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>272</v>
+        <v>508</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>273</v>
+        <v>509</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>81</v>
+        <v>510</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>81</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>81</v>
+        <v>513</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10684,7 +10646,7 @@
         <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>81</v>
@@ -10693,18 +10655,18 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>275</v>
+        <v>514</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10728,13 +10690,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10752,7 +10714,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>278</v>
+        <v>512</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10767,16 +10729,16 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>81</v>
+        <v>519</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>279</v>
+        <v>520</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>280</v>
+        <v>521</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -10784,24 +10746,24 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>523</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>446</v>
+        <v>523</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>81</v>
+        <v>524</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>81</v>
@@ -10810,20 +10772,18 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>282</v>
+        <v>503</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>283</v>
+        <v>525</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>284</v>
+        <v>526</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10871,13 +10831,13 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>287</v>
+        <v>523</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
@@ -10886,16 +10846,16 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>81</v>
+        <v>528</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>288</v>
+        <v>529</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>289</v>
+        <v>530</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -10903,10 +10863,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>531</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>447</v>
+        <v>531</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10920,7 +10880,7 @@
         <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>81</v>
@@ -10929,20 +10889,16 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>291</v>
+        <v>532</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10966,13 +10922,11 @@
         <v>81</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>81</v>
+        <v>534</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>81</v>
@@ -10990,13 +10944,13 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>295</v>
+        <v>531</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
@@ -11008,13 +10962,13 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>297</v>
+        <v>535</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -11022,21 +10976,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>448</v>
+        <v>536</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>448</v>
+        <v>536</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
@@ -11045,20 +10999,18 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -11083,13 +11035,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>455</v>
+        <v>81</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -11107,53 +11059,53 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>448</v>
+        <v>212</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>457</v>
+        <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>434</v>
+        <v>213</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>458</v>
+        <v>537</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>458</v>
+        <v>537</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -11162,21 +11114,21 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>459</v>
+        <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>460</v>
+        <v>215</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
       </c>
@@ -11212,40 +11164,40 @@
         <v>81</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>458</v>
+        <v>218</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>457</v>
+        <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>463</v>
+        <v>213</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11256,10 +11208,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11282,16 +11234,20 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>465</v>
+        <v>342</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>466</v>
+        <v>343</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11339,13 +11295,13 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>464</v>
+        <v>347</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
@@ -11354,31 +11310,31 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>469</v>
+        <v>348</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>470</v>
+        <v>349</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11394,16 +11350,16 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>475</v>
+        <v>209</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>476</v>
+        <v>210</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>477</v>
+        <v>211</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11454,7 +11410,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>473</v>
+        <v>212</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11466,41 +11422,41 @@
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>479</v>
+        <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>480</v>
+        <v>213</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>481</v>
+        <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>482</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>484</v>
+        <v>192</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -11509,18 +11465,20 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>485</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>486</v>
+        <v>215</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
@@ -11557,54 +11515,54 @@
         <v>81</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>483</v>
+        <v>218</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>490</v>
+        <v>213</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11612,13 +11570,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>81</v>
@@ -11627,16 +11585,20 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>494</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>495</v>
+        <v>353</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11660,13 +11622,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11684,7 +11646,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>493</v>
+        <v>357</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11702,38 +11664,38 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>499</v>
+        <v>359</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>81</v>
@@ -11742,15 +11704,17 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>503</v>
+        <v>209</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>504</v>
+        <v>361</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -11799,7 +11763,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>501</v>
+        <v>364</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11814,31 +11778,31 @@
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>506</v>
+        <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>507</v>
+        <v>365</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>508</v>
+        <v>366</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11857,18 +11821,18 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>513</v>
+        <v>110</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>514</v>
+        <v>368</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11916,7 +11880,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>511</v>
+        <v>371</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11931,31 +11895,31 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>517</v>
+        <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>518</v>
+        <v>372</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>519</v>
+        <v>373</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>521</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>523</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11965,7 +11929,7 @@
         <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>81</v>
@@ -11974,18 +11938,18 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>524</v>
+        <v>375</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
       </c>
@@ -12009,13 +11973,13 @@
         <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>81</v>
@@ -12033,7 +11997,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>522</v>
+        <v>378</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12048,16 +12012,16 @@
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>529</v>
+        <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>530</v>
+        <v>379</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>531</v>
+        <v>380</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>81</v>
@@ -12065,24 +12029,24 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>81</v>
@@ -12091,18 +12055,20 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>513</v>
+        <v>382</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>535</v>
+        <v>383</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>536</v>
+        <v>384</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
       </c>
@@ -12150,13 +12116,13 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>533</v>
+        <v>387</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>81</v>
@@ -12165,16 +12131,16 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>538</v>
+        <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>539</v>
+        <v>388</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>540</v>
+        <v>389</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
@@ -12182,10 +12148,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12199,7 +12165,7 @@
         <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>81</v>
@@ -12208,16 +12174,20 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>542</v>
+        <v>391</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
       </c>
@@ -12241,11 +12211,13 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>544</v>
+        <v>81</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12263,13 +12235,13 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>541</v>
+        <v>395</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>81</v>
@@ -12281,13 +12253,13 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>545</v>
+        <v>397</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
@@ -12295,10 +12267,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12309,7 +12281,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
@@ -12318,16 +12290,16 @@
         <v>81</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>209</v>
+        <v>548</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>210</v>
+        <v>549</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>211</v>
+        <v>550</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12378,19 +12350,19 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>212</v>
+        <v>547</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>81</v>
@@ -12399,10 +12371,10 @@
         <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>213</v>
+        <v>551</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -12410,42 +12382,42 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>215</v>
+        <v>553</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>216</v>
+        <v>554</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>195</v>
+        <v>555</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12471,31 +12443,29 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>81</v>
+        <v>556</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>218</v>
+        <v>552</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12507,19 +12477,19 @@
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>81</v>
+        <v>557</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>81</v>
+        <v>558</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>213</v>
+        <v>559</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -12527,10 +12497,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12538,13 +12508,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>81</v>
@@ -12553,20 +12523,18 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>241</v>
+        <v>562</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>243</v>
+        <v>564</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>81</v>
       </c>
@@ -12614,7 +12582,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>246</v>
+        <v>561</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12629,16 +12597,16 @@
         <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>81</v>
+        <v>566</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>247</v>
+        <v>567</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>248</v>
+        <v>568</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -12646,10 +12614,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12660,7 +12628,7 @@
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>81</v>
@@ -12672,13 +12640,13 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>209</v>
+        <v>570</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>210</v>
+        <v>571</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>211</v>
+        <v>572</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12729,28 +12697,28 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>212</v>
+        <v>569</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>81</v>
+        <v>573</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>81</v>
+        <v>574</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>213</v>
+        <v>575</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>81</v>
@@ -12761,24 +12729,24 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>192</v>
+        <v>577</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>81</v>
@@ -12787,16 +12755,16 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>135</v>
+        <v>578</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>215</v>
+        <v>579</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>216</v>
+        <v>580</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>195</v>
+        <v>581</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12834,10 +12802,10 @@
         <v>81</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>138</v>
+        <v>582</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>217</v>
+        <v>583</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>81</v>
@@ -12846,7 +12814,7 @@
         <v>139</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>218</v>
+        <v>576</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12858,16 +12826,16 @@
         <v>81</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>81</v>
+        <v>585</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>213</v>
+        <v>586</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -12878,18 +12846,20 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="D90" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>90</v>
@@ -12901,23 +12871,21 @@
         <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>104</v>
+        <v>589</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>252</v>
+        <v>590</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>253</v>
+        <v>580</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>81</v>
       </c>
@@ -12965,13 +12933,13 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>256</v>
+        <v>576</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>81</v>
@@ -12980,13 +12948,13 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>257</v>
+        <v>585</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>258</v>
+        <v>586</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
@@ -12997,14 +12965,16 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>552</v>
+        <v>591</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="D91" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13014,25 +12984,25 @@
         <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>209</v>
+        <v>593</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>260</v>
+        <v>594</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>261</v>
+        <v>580</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>262</v>
+        <v>581</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13082,13 +13052,13 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>263</v>
+        <v>576</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>81</v>
@@ -13097,13 +13067,13 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>264</v>
+        <v>585</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>265</v>
+        <v>586</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -13114,21 +13084,23 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="D92" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>91</v>
@@ -13137,21 +13109,21 @@
         <v>81</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>110</v>
+        <v>597</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>267</v>
+        <v>598</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>81</v>
       </c>
@@ -13199,13 +13171,13 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>271</v>
+        <v>576</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>81</v>
@@ -13214,13 +13186,13 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>272</v>
+        <v>585</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>273</v>
+        <v>586</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
@@ -13231,14 +13203,16 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>554</v>
+        <v>599</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="D93" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13254,21 +13228,21 @@
         <v>81</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>209</v>
+        <v>601</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>275</v>
+        <v>602</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>81</v>
       </c>
@@ -13316,13 +13290,13 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>278</v>
+        <v>576</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>81</v>
@@ -13331,13 +13305,13 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>279</v>
+        <v>585</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>280</v>
+        <v>586</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
@@ -13348,14 +13322,16 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>555</v>
+        <v>603</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="D94" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13365,29 +13341,27 @@
         <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>282</v>
+        <v>605</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>283</v>
+        <v>606</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>284</v>
+        <v>580</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>81</v>
       </c>
@@ -13435,13 +13409,13 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>287</v>
+        <v>576</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>81</v>
@@ -13450,13 +13424,13 @@
         <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>288</v>
+        <v>585</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>289</v>
+        <v>586</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
@@ -13467,46 +13441,46 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="D95" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>209</v>
+        <v>609</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>291</v>
+        <v>610</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>292</v>
+        <v>580</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>81</v>
       </c>
@@ -13554,13 +13528,13 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>295</v>
+        <v>576</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>81</v>
@@ -13569,13 +13543,13 @@
         <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>296</v>
+        <v>585</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>297</v>
+        <v>586</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
@@ -13586,41 +13560,45 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>557</v>
+        <v>611</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="D96" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>558</v>
+        <v>613</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>559</v>
+        <v>614</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>81</v>
@@ -13669,7 +13647,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13684,16 +13662,16 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>81</v>
+        <v>585</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>81</v>
@@ -13701,14 +13679,16 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>562</v>
+        <v>615</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="D97" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13724,19 +13704,19 @@
         <v>81</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>230</v>
+        <v>617</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>563</v>
+        <v>618</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13762,11 +13742,13 @@
         <v>81</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y97" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z97" t="s" s="2">
-        <v>566</v>
+        <v>81</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>81</v>
@@ -13784,7 +13766,7 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13799,16 +13781,16 @@
         <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>570</v>
+        <v>81</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>81</v>
@@ -13816,42 +13798,44 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>620</v>
+      </c>
       <c r="D98" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>573</v>
+        <v>622</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13901,7 +13885,7 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13916,16 +13900,16 @@
         <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>570</v>
+        <v>81</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>81</v>
@@ -13933,10 +13917,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>579</v>
+        <v>623</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>579</v>
+        <v>623</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13956,18 +13940,20 @@
         <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>580</v>
+        <v>624</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>581</v>
+        <v>625</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>81</v>
@@ -14016,7 +14002,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>579</v>
+        <v>623</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14031,13 +14017,13 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>583</v>
+        <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>584</v>
+        <v>628</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>585</v>
+        <v>629</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
@@ -14048,44 +14034,46 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>586</v>
+        <v>630</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>586</v>
+        <v>630</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>587</v>
+        <v>631</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J100" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K100" t="s" s="2">
-        <v>588</v>
+        <v>230</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>589</v>
+        <v>632</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>590</v>
+        <v>633</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>634</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>81</v>
       </c>
@@ -14109,31 +14097,31 @@
         <v>81</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>81</v>
+        <v>636</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>81</v>
+        <v>637</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>592</v>
+        <v>81</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>593</v>
+        <v>81</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>586</v>
+        <v>630</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14148,43 +14136,41 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>594</v>
+        <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>595</v>
+        <v>628</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>81</v>
+        <v>639</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>597</v>
+        <v>640</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>587</v>
+        <v>81</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>81</v>
@@ -14193,17 +14179,15 @@
         <v>81</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>81</v>
@@ -14252,7 +14236,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>586</v>
+        <v>640</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14267,33 +14251,31 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>594</v>
+        <v>643</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>595</v>
+        <v>447</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>81</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>601</v>
+        <v>646</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>587</v>
+        <v>81</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14303,26 +14285,24 @@
         <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J102" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K102" t="s" s="2">
-        <v>603</v>
+        <v>209</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>604</v>
+        <v>647</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -14371,13 +14351,13 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>586</v>
+        <v>646</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>81</v>
@@ -14386,13 +14366,13 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>594</v>
+        <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>595</v>
+        <v>447</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>81</v>
@@ -14403,16 +14383,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>587</v>
+        <v>81</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14422,7 +14400,7 @@
         <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>81</v>
@@ -14431,16 +14409,16 @@
         <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>607</v>
+        <v>651</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>608</v>
+        <v>652</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>590</v>
+        <v>653</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>591</v>
+        <v>654</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14490,7 +14468,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>586</v>
+        <v>650</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14505,1320 +14483,23 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>595</v>
+        <v>133</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>596</v>
+        <v>656</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="D104" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="D105" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="D106" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="D107" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="D108" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="D109" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO114" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO114">
+  <autoFilter ref="A1:AO103">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15828,7 +14509,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI113">
+  <conditionalFormatting sqref="A2:AI102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T10:40:28-04:00</t>
+    <t>2024-06-03T17:44:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T17:44:35-04:00</t>
+    <t>2024-06-04T10:43:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
